--- a/Consolidado regiones piloto (necesidades tecnológicas).xlsx
+++ b/Consolidado regiones piloto (necesidades tecnológicas).xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1028">
   <si>
     <t>Región</t>
   </si>
@@ -3396,6 +3396,54 @@
   </si>
   <si>
     <t>Evalúa el estado de desarrollo de la tecnología, utilizando la escala de Nivel de Madurez Tecnológica (Technology Readiness Level - TRL). Permite comprender cuán avanzadas están las potenciales soluciones: desde la investigación básica (TRL bajo) hasta un prototipo validado o un sistema probado en un entorno real y listo para el mercado (TRL alto). Es crucial para los productores saber si la tecnología es un concepto preliminar o algo cercano a la implementación, informando la viabilidad y los recursos necesarios para su adopción.</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Vehículos Autónomos y Plataformas de Monitoreo Remoto</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación (TICs)</t>
+  </si>
+  <si>
+    <t>Automatización y Robótica (Hardware), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de Procesamiento y Transformación</t>
+  </si>
+  <si>
+    <t>Producción Silvoagropecuaria Adaptativa y Resiliente, Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain)</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Soluciones Digitales y Software</t>
+  </si>
+  <si>
+    <t>Pesca y Acuicultura Sostenible y Diversificada, Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Soluciones Digitales y Software, Tecnologías de la Información y Comunicación (TICs)</t>
+  </si>
+  <si>
+    <t>Conectividad y Redes de Comunicación (Infraestructura), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Soluciones Digitales y Software, Tecnologías de la Información y Comunicación (TICs)</t>
+  </si>
+  <si>
+    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Soluciones Digitales y Software, Tecnologías de la Información y Comunicación (TICs)</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Soluciones Digitales y Software</t>
+  </si>
+  <si>
+    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de la Información y Comunicación (TICs), Otros</t>
+  </si>
+  <si>
+    <t>Materiales Avanzados y Nanotecnología (Innovación), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de Procesamiento y Transformación, Tecnologías de la Información y Comunicación (TICs), Otros</t>
+  </si>
+  <si>
+    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación (TICs)</t>
+  </si>
+  <si>
+    <t>Conectividad y Redes de Comunicación (Infraestructura), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Vehículos Autónomos y Plataformas de Monitoreo Remoto</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de la Información y Comunicación (TICs)</t>
+  </si>
+  <si>
+    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Soluciones Digitales y Software, Tecnologías de la Información y Comunicación (TICs), Otros</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Bienestar, Calidad de Vida y Cohesión Social, Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain)</t>
   </si>
 </sst>
 </file>
@@ -3680,7 +3728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3799,6 +3847,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -35667,17 +35716,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="6" max="6" width="78.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4">
@@ -35696,7 +35748,7 @@
       <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="50" t="s">
         <v>638</v>
       </c>
     </row>
@@ -35877,7 +35929,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>896</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4">
@@ -35897,7 +35949,7 @@
         <v>74</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>900</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4">
@@ -35917,7 +35969,7 @@
         <v>82</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>904</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4">
@@ -36117,7 +36169,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>942</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4">
@@ -36137,7 +36189,7 @@
         <v>154</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>946</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4">
@@ -36157,7 +36209,7 @@
         <v>161</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>950</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4">
@@ -36337,10 +36389,10 @@
         <v>222</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.4" hidden="1">
       <c r="A34" s="18" t="s">
         <v>228</v>
       </c>
@@ -36360,7 +36412,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.4" hidden="1">
       <c r="A35" s="18" t="s">
         <v>228</v>
       </c>
@@ -36380,7 +36432,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="14.4" hidden="1">
       <c r="A36" s="18" t="s">
         <v>228</v>
       </c>
@@ -36400,7 +36452,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="14.4" hidden="1">
       <c r="A37" s="18" t="s">
         <v>228</v>
       </c>
@@ -36420,7 +36472,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="14.4" hidden="1">
       <c r="A38" s="18" t="s">
         <v>228</v>
       </c>
@@ -36440,7 +36492,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="14.4" hidden="1">
       <c r="A39" s="18" t="s">
         <v>228</v>
       </c>
@@ -36460,7 +36512,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="14.4" hidden="1">
       <c r="A40" s="18" t="s">
         <v>228</v>
       </c>
@@ -36480,7 +36532,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="14.4" hidden="1">
       <c r="A41" s="18" t="s">
         <v>228</v>
       </c>
@@ -36500,7 +36552,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="14.4" hidden="1">
       <c r="A42" s="18" t="s">
         <v>228</v>
       </c>
@@ -36520,7 +36572,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="14.4" hidden="1">
       <c r="A43" s="18" t="s">
         <v>228</v>
       </c>
@@ -36540,7 +36592,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="14.4" hidden="1">
       <c r="A44" s="18" t="s">
         <v>228</v>
       </c>
@@ -36560,7 +36612,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="14.4" hidden="1">
       <c r="A45" s="18" t="s">
         <v>228</v>
       </c>
@@ -36577,10 +36629,10 @@
         <v>308</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" hidden="1">
       <c r="A46" s="18" t="s">
         <v>228</v>
       </c>
@@ -36600,7 +36652,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="14.4" hidden="1">
       <c r="A47" s="18" t="s">
         <v>228</v>
       </c>
@@ -36620,7 +36672,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="14.4" hidden="1">
       <c r="A48" s="18" t="s">
         <v>228</v>
       </c>
@@ -36640,7 +36692,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="14.4" hidden="1">
       <c r="A49" s="18" t="s">
         <v>228</v>
       </c>
@@ -36660,7 +36712,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="14.4" hidden="1">
       <c r="A50" s="18" t="s">
         <v>228</v>
       </c>
@@ -36680,7 +36732,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="14.4" hidden="1">
       <c r="A51" s="18" t="s">
         <v>228</v>
       </c>
@@ -36700,7 +36752,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="14.4" hidden="1">
       <c r="A52" s="18" t="s">
         <v>228</v>
       </c>
@@ -36720,7 +36772,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="14.4" hidden="1">
       <c r="A53" s="18" t="s">
         <v>228</v>
       </c>
@@ -36740,7 +36792,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="14.4" hidden="1">
       <c r="A54" s="18" t="s">
         <v>228</v>
       </c>
@@ -36760,7 +36812,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="14.4" hidden="1">
       <c r="A55" s="18" t="s">
         <v>228</v>
       </c>
@@ -36780,7 +36832,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="14.4" hidden="1">
       <c r="A56" s="18" t="s">
         <v>228</v>
       </c>
@@ -36800,7 +36852,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="14.4" hidden="1">
       <c r="A57" s="18" t="s">
         <v>228</v>
       </c>
@@ -36820,7 +36872,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="14.4" hidden="1">
       <c r="A58" s="18" t="s">
         <v>228</v>
       </c>
@@ -36840,7 +36892,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="14.4" hidden="1">
       <c r="A59" s="18" t="s">
         <v>228</v>
       </c>
@@ -36860,7 +36912,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="14.4" hidden="1">
       <c r="A60" s="18" t="s">
         <v>228</v>
       </c>
@@ -36880,7 +36932,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="14.4" hidden="1">
       <c r="A61" s="18" t="s">
         <v>228</v>
       </c>
@@ -36897,10 +36949,10 @@
         <v>410</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.4" hidden="1">
       <c r="A62" s="18" t="s">
         <v>228</v>
       </c>
@@ -36920,7 +36972,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="14.4" hidden="1">
       <c r="A63" s="18" t="s">
         <v>228</v>
       </c>
@@ -36940,7 +36992,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="14.4" hidden="1">
       <c r="A64" s="18" t="s">
         <v>228</v>
       </c>
@@ -36960,7 +37012,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="14.4" hidden="1">
       <c r="A65" s="18" t="s">
         <v>436</v>
       </c>
@@ -36980,7 +37032,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="14.4" hidden="1">
       <c r="A66" s="18" t="s">
         <v>436</v>
       </c>
@@ -37000,7 +37052,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="14.4" hidden="1">
       <c r="A67" s="18" t="s">
         <v>436</v>
       </c>
@@ -37020,7 +37072,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="14.4" hidden="1">
       <c r="A68" s="18" t="s">
         <v>436</v>
       </c>
@@ -37040,7 +37092,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="14.4" hidden="1">
       <c r="A69" s="18" t="s">
         <v>436</v>
       </c>
@@ -37057,10 +37109,10 @@
         <v>466</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.4" hidden="1">
       <c r="A70" s="18" t="s">
         <v>436</v>
       </c>
@@ -37080,7 +37132,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="14.4" hidden="1">
       <c r="A71" s="18" t="s">
         <v>436</v>
       </c>
@@ -37100,7 +37152,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="14.4" hidden="1">
       <c r="A72" s="18" t="s">
         <v>436</v>
       </c>
@@ -37120,7 +37172,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="14.4" hidden="1">
       <c r="A73" s="18" t="s">
         <v>436</v>
       </c>
@@ -37140,7 +37192,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="14.4" hidden="1">
       <c r="A74" s="18" t="s">
         <v>436</v>
       </c>
@@ -37160,7 +37212,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="14.4" hidden="1">
       <c r="A75" s="18" t="s">
         <v>436</v>
       </c>
@@ -37177,10 +37229,10 @@
         <v>509</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.4" hidden="1">
       <c r="A76" s="18" t="s">
         <v>436</v>
       </c>
@@ -37200,7 +37252,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="14.4" hidden="1">
       <c r="A77" s="18" t="s">
         <v>436</v>
       </c>
@@ -37220,7 +37272,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="14.4" hidden="1">
       <c r="A78" s="18" t="s">
         <v>436</v>
       </c>
@@ -37240,7 +37292,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="14.4" hidden="1">
       <c r="A79" s="18" t="s">
         <v>436</v>
       </c>
@@ -37260,7 +37312,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="14.4" hidden="1">
       <c r="A80" s="18" t="s">
         <v>436</v>
       </c>
@@ -37280,7 +37332,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="14.4" hidden="1">
       <c r="A81" s="18" t="s">
         <v>436</v>
       </c>
@@ -37300,7 +37352,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="14.4" hidden="1">
       <c r="A82" s="18" t="s">
         <v>436</v>
       </c>
@@ -37317,10 +37369,10 @@
         <v>557</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.4" hidden="1">
       <c r="A83" s="18" t="s">
         <v>436</v>
       </c>
@@ -37337,10 +37389,10 @@
         <v>564</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.4" hidden="1">
       <c r="A84" s="18" t="s">
         <v>436</v>
       </c>
@@ -37360,7 +37412,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="14.4" hidden="1">
       <c r="A85" s="18" t="s">
         <v>436</v>
       </c>
@@ -37377,10 +37429,10 @@
         <v>578</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14.4" hidden="1">
       <c r="A86" s="18" t="s">
         <v>436</v>
       </c>
@@ -37400,7 +37452,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="14.4" hidden="1">
       <c r="A87" s="18" t="s">
         <v>436</v>
       </c>
@@ -37420,7 +37472,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="14.4" hidden="1">
       <c r="A88" s="18" t="s">
         <v>436</v>
       </c>
@@ -37440,7 +37492,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="14.4" hidden="1">
       <c r="A89" s="18" t="s">
         <v>436</v>
       </c>
@@ -37460,7 +37512,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="14.4" hidden="1">
       <c r="A90" s="18" t="s">
         <v>436</v>
       </c>
@@ -37480,7 +37532,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="14.4" hidden="1">
       <c r="A91" s="18" t="s">
         <v>436</v>
       </c>
@@ -37497,10 +37549,10 @@
         <v>617</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.4" hidden="1">
       <c r="A92" s="18" t="s">
         <v>436</v>
       </c>
@@ -37520,7 +37572,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="14.4" hidden="1">
       <c r="A93" s="18" t="s">
         <v>436</v>
       </c>
@@ -37537,11 +37589,16 @@
         <v>631</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>747</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F93">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Maule"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:F33">
       <sortCondition ref="B1:B93"/>
     </sortState>

--- a/Consolidado regiones piloto (necesidades tecnológicas).xlsx
+++ b/Consolidado regiones piloto (necesidades tecnológicas).xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1029">
   <si>
     <t>Región</t>
   </si>
@@ -3444,6 +3444,9 @@
   </si>
   <si>
     <t>Análisis de Datos e Inteligencia Artificial (Software), Bienestar, Calidad de Vida y Cohesión Social, Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain)</t>
+  </si>
+  <si>
+    <t>Impacto potencial</t>
   </si>
 </sst>
 </file>
@@ -4066,10 +4069,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -35716,13 +35719,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -35732,7 +35735,7 @@
     <col min="6" max="6" width="78.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -35751,8 +35754,14 @@
       <c r="F1" s="50" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.4">
+      <c r="G1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
@@ -35771,8 +35780,14 @@
       <c r="F2" s="19" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
@@ -35791,8 +35806,14 @@
       <c r="F3" s="19" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.4">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
@@ -35811,8 +35832,14 @@
       <c r="F4" s="19" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.4">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -35831,8 +35858,14 @@
       <c r="F5" s="19" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.4">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
@@ -35851,8 +35884,14 @@
       <c r="F6" s="19" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.4">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4">
       <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
@@ -35871,8 +35910,14 @@
       <c r="F7" s="19" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.4">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.4">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
@@ -35891,8 +35936,14 @@
       <c r="F8" s="19" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.4">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.4">
       <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
@@ -35911,8 +35962,14 @@
       <c r="F9" s="19" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.4">
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.4">
       <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
@@ -35931,8 +35988,14 @@
       <c r="F10" s="19" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.4">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.4">
       <c r="A11" s="18" t="s">
         <v>11</v>
       </c>
@@ -35951,8 +36014,14 @@
       <c r="F11" s="19" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.4">
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.4">
       <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
@@ -35971,8 +36040,14 @@
       <c r="F12" s="19" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.4">
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -35991,8 +36066,14 @@
       <c r="F13" s="19" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.4">
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -36011,8 +36092,14 @@
       <c r="F14" s="19" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.4">
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4">
       <c r="A15" s="18" t="s">
         <v>11</v>
       </c>
@@ -36031,8 +36118,14 @@
       <c r="F15" s="19" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.4">
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4">
       <c r="A16" s="18" t="s">
         <v>11</v>
       </c>
@@ -36051,8 +36144,14 @@
       <c r="F16" s="19" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.4">
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4">
       <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
@@ -36071,8 +36170,14 @@
       <c r="F17" s="19" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.4">
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4">
       <c r="A18" s="18" t="s">
         <v>11</v>
       </c>
@@ -36091,8 +36196,14 @@
       <c r="F18" s="19" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.4">
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4">
       <c r="A19" s="18" t="s">
         <v>11</v>
       </c>
@@ -36111,8 +36222,14 @@
       <c r="F19" s="19" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4">
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
@@ -36131,8 +36248,14 @@
       <c r="F20" s="19" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.4">
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4">
       <c r="A21" s="18" t="s">
         <v>11</v>
       </c>
@@ -36151,8 +36274,14 @@
       <c r="F21" s="19" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.4">
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.4">
       <c r="A22" s="18" t="s">
         <v>11</v>
       </c>
@@ -36171,8 +36300,14 @@
       <c r="F22" s="19" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.4">
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.4">
       <c r="A23" s="18" t="s">
         <v>11</v>
       </c>
@@ -36191,8 +36326,14 @@
       <c r="F23" s="19" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.4">
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.4">
       <c r="A24" s="18" t="s">
         <v>11</v>
       </c>
@@ -36211,8 +36352,14 @@
       <c r="F24" s="19" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.4">
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4">
       <c r="A25" s="18" t="s">
         <v>11</v>
       </c>
@@ -36231,8 +36378,14 @@
       <c r="F25" s="19" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.4">
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.4">
       <c r="A26" s="18" t="s">
         <v>11</v>
       </c>
@@ -36251,8 +36404,14 @@
       <c r="F26" s="19" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.4">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.4">
       <c r="A27" s="18" t="s">
         <v>11</v>
       </c>
@@ -36271,8 +36430,14 @@
       <c r="F27" s="19" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.4">
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4">
       <c r="A28" s="18" t="s">
         <v>11</v>
       </c>
@@ -36291,8 +36456,14 @@
       <c r="F28" s="19" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.4">
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.4">
       <c r="A29" s="18" t="s">
         <v>11</v>
       </c>
@@ -36311,8 +36482,14 @@
       <c r="F29" s="19" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.4">
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.4">
       <c r="A30" s="18" t="s">
         <v>11</v>
       </c>
@@ -36331,8 +36508,14 @@
       <c r="F30" s="19" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.4">
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4">
       <c r="A31" s="18" t="s">
         <v>11</v>
       </c>
@@ -36351,8 +36534,14 @@
       <c r="F31" s="19" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.4">
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4">
       <c r="A32" s="18" t="s">
         <v>11</v>
       </c>
@@ -36371,8 +36560,14 @@
       <c r="F32" s="19" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.4">
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.4">
       <c r="A33" s="18" t="s">
         <v>11</v>
       </c>
@@ -36391,8 +36586,14 @@
       <c r="F33" s="19" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.4" hidden="1">
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.4">
       <c r="A34" s="18" t="s">
         <v>228</v>
       </c>
@@ -36411,8 +36612,14 @@
       <c r="F34" s="19" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.4" hidden="1">
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.4">
       <c r="A35" s="18" t="s">
         <v>228</v>
       </c>
@@ -36431,8 +36638,14 @@
       <c r="F35" s="19" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.4" hidden="1">
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.4">
       <c r="A36" s="18" t="s">
         <v>228</v>
       </c>
@@ -36451,8 +36664,14 @@
       <c r="F36" s="18" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.4" hidden="1">
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.4">
       <c r="A37" s="18" t="s">
         <v>228</v>
       </c>
@@ -36471,8 +36690,14 @@
       <c r="F37" s="18" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.4" hidden="1">
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4">
       <c r="A38" s="18" t="s">
         <v>228</v>
       </c>
@@ -36491,8 +36716,14 @@
       <c r="F38" s="19" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.4" hidden="1">
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.4">
       <c r="A39" s="18" t="s">
         <v>228</v>
       </c>
@@ -36511,8 +36742,14 @@
       <c r="F39" s="19" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.4" hidden="1">
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.4">
       <c r="A40" s="18" t="s">
         <v>228</v>
       </c>
@@ -36531,8 +36768,14 @@
       <c r="F40" s="19" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.4" hidden="1">
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.4">
       <c r="A41" s="18" t="s">
         <v>228</v>
       </c>
@@ -36551,8 +36794,14 @@
       <c r="F41" s="19" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.4" hidden="1">
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.4">
       <c r="A42" s="18" t="s">
         <v>228</v>
       </c>
@@ -36571,8 +36820,14 @@
       <c r="F42" s="18" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.4" hidden="1">
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.4">
       <c r="A43" s="18" t="s">
         <v>228</v>
       </c>
@@ -36591,8 +36846,14 @@
       <c r="F43" s="19" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.4" hidden="1">
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.4">
       <c r="A44" s="18" t="s">
         <v>228</v>
       </c>
@@ -36611,8 +36872,14 @@
       <c r="F44" s="19" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.4" hidden="1">
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.4">
       <c r="A45" s="18" t="s">
         <v>228</v>
       </c>
@@ -36631,8 +36898,14 @@
       <c r="F45" s="19" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.4" hidden="1">
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.4">
       <c r="A46" s="18" t="s">
         <v>228</v>
       </c>
@@ -36651,8 +36924,14 @@
       <c r="F46" s="19" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.4" hidden="1">
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.4">
       <c r="A47" s="18" t="s">
         <v>228</v>
       </c>
@@ -36671,8 +36950,14 @@
       <c r="F47" s="19" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.4" hidden="1">
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.4">
       <c r="A48" s="18" t="s">
         <v>228</v>
       </c>
@@ -36691,8 +36976,14 @@
       <c r="F48" s="19" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.4" hidden="1">
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.4">
       <c r="A49" s="18" t="s">
         <v>228</v>
       </c>
@@ -36711,8 +37002,14 @@
       <c r="F49" s="19" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.4" hidden="1">
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.4">
       <c r="A50" s="18" t="s">
         <v>228</v>
       </c>
@@ -36731,8 +37028,14 @@
       <c r="F50" s="19" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.4" hidden="1">
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.4">
       <c r="A51" s="18" t="s">
         <v>228</v>
       </c>
@@ -36751,8 +37054,14 @@
       <c r="F51" s="19" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.4" hidden="1">
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.4">
       <c r="A52" s="18" t="s">
         <v>228</v>
       </c>
@@ -36771,8 +37080,14 @@
       <c r="F52" s="19" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.4" hidden="1">
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.4">
       <c r="A53" s="18" t="s">
         <v>228</v>
       </c>
@@ -36791,8 +37106,14 @@
       <c r="F53" s="19" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.4" hidden="1">
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.4">
       <c r="A54" s="18" t="s">
         <v>228</v>
       </c>
@@ -36811,8 +37132,14 @@
       <c r="F54" s="19" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.4" hidden="1">
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.4">
       <c r="A55" s="18" t="s">
         <v>228</v>
       </c>
@@ -36831,8 +37158,14 @@
       <c r="F55" s="19" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.4" hidden="1">
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.4">
       <c r="A56" s="18" t="s">
         <v>228</v>
       </c>
@@ -36851,8 +37184,14 @@
       <c r="F56" s="19" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.4" hidden="1">
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.4">
       <c r="A57" s="18" t="s">
         <v>228</v>
       </c>
@@ -36871,8 +37210,14 @@
       <c r="F57" s="19" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.4" hidden="1">
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.4">
       <c r="A58" s="18" t="s">
         <v>228</v>
       </c>
@@ -36891,8 +37236,14 @@
       <c r="F58" s="19" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.4" hidden="1">
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.4">
       <c r="A59" s="18" t="s">
         <v>228</v>
       </c>
@@ -36911,8 +37262,14 @@
       <c r="F59" s="19" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.4" hidden="1">
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.4">
       <c r="A60" s="18" t="s">
         <v>228</v>
       </c>
@@ -36931,8 +37288,14 @@
       <c r="F60" s="19" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.4" hidden="1">
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.4">
       <c r="A61" s="18" t="s">
         <v>228</v>
       </c>
@@ -36951,8 +37314,14 @@
       <c r="F61" s="19" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="14.4" hidden="1">
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.4">
       <c r="A62" s="18" t="s">
         <v>228</v>
       </c>
@@ -36971,8 +37340,14 @@
       <c r="F62" s="19" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.4" hidden="1">
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.4">
       <c r="A63" s="18" t="s">
         <v>228</v>
       </c>
@@ -36991,8 +37366,14 @@
       <c r="F63" s="19" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.4" hidden="1">
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.4">
       <c r="A64" s="18" t="s">
         <v>228</v>
       </c>
@@ -37011,8 +37392,14 @@
       <c r="F64" s="19" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="14.4" hidden="1">
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.4">
       <c r="A65" s="18" t="s">
         <v>436</v>
       </c>
@@ -37031,8 +37418,14 @@
       <c r="F65" s="19" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.4" hidden="1">
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.4">
       <c r="A66" s="18" t="s">
         <v>436</v>
       </c>
@@ -37051,8 +37444,14 @@
       <c r="F66" s="19" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.4" hidden="1">
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.4">
       <c r="A67" s="18" t="s">
         <v>436</v>
       </c>
@@ -37071,8 +37470,14 @@
       <c r="F67" s="18" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.4" hidden="1">
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.4">
       <c r="A68" s="18" t="s">
         <v>436</v>
       </c>
@@ -37091,8 +37496,14 @@
       <c r="F68" s="18" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.4" hidden="1">
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.4">
       <c r="A69" s="18" t="s">
         <v>436</v>
       </c>
@@ -37111,8 +37522,14 @@
       <c r="F69" s="19" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.4" hidden="1">
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.4">
       <c r="A70" s="18" t="s">
         <v>436</v>
       </c>
@@ -37131,8 +37548,14 @@
       <c r="F70" s="19" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="14.4" hidden="1">
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.4">
       <c r="A71" s="18" t="s">
         <v>436</v>
       </c>
@@ -37151,8 +37574,14 @@
       <c r="F71" s="19" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="14.4" hidden="1">
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.4">
       <c r="A72" s="18" t="s">
         <v>436</v>
       </c>
@@ -37171,8 +37600,14 @@
       <c r="F72" s="19" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="14.4" hidden="1">
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.4">
       <c r="A73" s="18" t="s">
         <v>436</v>
       </c>
@@ -37191,8 +37626,14 @@
       <c r="F73" s="18" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="14.4" hidden="1">
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.4">
       <c r="A74" s="18" t="s">
         <v>436</v>
       </c>
@@ -37211,8 +37652,14 @@
       <c r="F74" s="19" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="14.4" hidden="1">
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.4">
       <c r="A75" s="18" t="s">
         <v>436</v>
       </c>
@@ -37231,8 +37678,14 @@
       <c r="F75" s="19" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="14.4" hidden="1">
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14.4">
       <c r="A76" s="18" t="s">
         <v>436</v>
       </c>
@@ -37251,8 +37704,14 @@
       <c r="F76" s="19" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="14.4" hidden="1">
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.4">
       <c r="A77" s="18" t="s">
         <v>436</v>
       </c>
@@ -37271,8 +37730,14 @@
       <c r="F77" s="19" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="14.4" hidden="1">
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14.4">
       <c r="A78" s="18" t="s">
         <v>436</v>
       </c>
@@ -37291,8 +37756,14 @@
       <c r="F78" s="19" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="14.4" hidden="1">
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.4">
       <c r="A79" s="18" t="s">
         <v>436</v>
       </c>
@@ -37311,8 +37782,14 @@
       <c r="F79" s="19" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="14.4" hidden="1">
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.4">
       <c r="A80" s="18" t="s">
         <v>436</v>
       </c>
@@ -37331,8 +37808,14 @@
       <c r="F80" s="19" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="14.4" hidden="1">
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.4">
       <c r="A81" s="18" t="s">
         <v>436</v>
       </c>
@@ -37351,8 +37834,14 @@
       <c r="F81" s="19" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="14.4" hidden="1">
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.4">
       <c r="A82" s="18" t="s">
         <v>436</v>
       </c>
@@ -37371,8 +37860,14 @@
       <c r="F82" s="19" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="14.4" hidden="1">
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14.4">
       <c r="A83" s="18" t="s">
         <v>436</v>
       </c>
@@ -37391,8 +37886,14 @@
       <c r="F83" s="19" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="14.4" hidden="1">
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.4">
       <c r="A84" s="18" t="s">
         <v>436</v>
       </c>
@@ -37411,8 +37912,14 @@
       <c r="F84" s="19" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="14.4" hidden="1">
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.4">
       <c r="A85" s="18" t="s">
         <v>436</v>
       </c>
@@ -37431,8 +37938,14 @@
       <c r="F85" s="19" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="14.4" hidden="1">
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.4">
       <c r="A86" s="18" t="s">
         <v>436</v>
       </c>
@@ -37451,8 +37964,14 @@
       <c r="F86" s="19" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="14.4" hidden="1">
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.4">
       <c r="A87" s="18" t="s">
         <v>436</v>
       </c>
@@ -37471,8 +37990,14 @@
       <c r="F87" s="19" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="14.4" hidden="1">
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14.4">
       <c r="A88" s="18" t="s">
         <v>436</v>
       </c>
@@ -37491,8 +38016,14 @@
       <c r="F88" s="19" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="14.4" hidden="1">
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14.4">
       <c r="A89" s="18" t="s">
         <v>436</v>
       </c>
@@ -37511,8 +38042,14 @@
       <c r="F89" s="19" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="14.4" hidden="1">
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.4">
       <c r="A90" s="18" t="s">
         <v>436</v>
       </c>
@@ -37531,8 +38068,14 @@
       <c r="F90" s="19" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="14.4" hidden="1">
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14.4">
       <c r="A91" s="18" t="s">
         <v>436</v>
       </c>
@@ -37551,8 +38094,14 @@
       <c r="F91" s="19" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="14.4" hidden="1">
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14.4">
       <c r="A92" s="18" t="s">
         <v>436</v>
       </c>
@@ -37571,8 +38120,14 @@
       <c r="F92" s="19" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="14.4" hidden="1">
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="14.4">
       <c r="A93" s="18" t="s">
         <v>436</v>
       </c>
@@ -37591,14 +38146,15 @@
       <c r="F93" s="19" t="s">
         <v>1020</v>
       </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F93">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Maule"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:F33">
       <sortCondition ref="B1:B93"/>
     </sortState>
@@ -37616,7 +38172,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31:D61"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Consolidado regiones piloto (necesidades tecnológicas).xlsx
+++ b/Consolidado regiones piloto (necesidades tecnológicas).xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1048">
   <si>
     <t>Región</t>
   </si>
@@ -3401,52 +3401,109 @@
     <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Vehículos Autónomos y Plataformas de Monitoreo Remoto</t>
   </si>
   <si>
-    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación (TICs)</t>
-  </si>
-  <si>
-    <t>Automatización y Robótica (Hardware), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de Procesamiento y Transformación</t>
-  </si>
-  <si>
-    <t>Producción Silvoagropecuaria Adaptativa y Resiliente, Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain)</t>
-  </si>
-  <si>
-    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Soluciones Digitales y Software</t>
-  </si>
-  <si>
-    <t>Pesca y Acuicultura Sostenible y Diversificada, Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Soluciones Digitales y Software, Tecnologías de la Información y Comunicación (TICs)</t>
-  </si>
-  <si>
-    <t>Conectividad y Redes de Comunicación (Infraestructura), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Soluciones Digitales y Software, Tecnologías de la Información y Comunicación (TICs)</t>
-  </si>
-  <si>
-    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Soluciones Digitales y Software, Tecnologías de la Información y Comunicación (TICs)</t>
-  </si>
-  <si>
-    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Soluciones Digitales y Software</t>
-  </si>
-  <si>
-    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de la Información y Comunicación (TICs), Otros</t>
-  </si>
-  <si>
-    <t>Materiales Avanzados y Nanotecnología (Innovación), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de Procesamiento y Transformación, Tecnologías de la Información y Comunicación (TICs), Otros</t>
-  </si>
-  <si>
-    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación (TICs)</t>
-  </si>
-  <si>
     <t>Conectividad y Redes de Comunicación (Infraestructura), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Vehículos Autónomos y Plataformas de Monitoreo Remoto</t>
   </si>
   <si>
-    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de la Información y Comunicación (TICs)</t>
-  </si>
-  <si>
-    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Soluciones Digitales y Software, Tecnologías de la Información y Comunicación (TICs), Otros</t>
-  </si>
-  <si>
-    <t>Análisis de Datos e Inteligencia Artificial (Software), Bienestar, Calidad de Vida y Cohesión Social, Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain)</t>
-  </si>
-  <si>
     <t>Impacto potencial</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación, Vehículos Autónomos y Plataformas de Monitoreo Remoto</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Automatización y Robótica (Hardware), Energías Renovables y Eficiencia Energética, Materiales Avanzados y Nanotecnología, Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Materiales Avanzados y Nanotecnología, Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación, Vehículos Autónomos y Plataformas de Monitoreo Remoto</t>
+  </si>
+  <si>
+    <t>Biotecnología y Bioingeniería, Materiales Avanzados y Nanotecnología, Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación, Vehículos Autónomos y Plataformas de Monitoreo Remoto</t>
+  </si>
+  <si>
+    <t>Automatización y Robótica (Hardware), Tecnologías de la Información y Comunicación, Vehículos Autónomos y Plataformas de Monitoreo Remoto</t>
+  </si>
+  <si>
+    <t>Biotecnología y Bioingeniería, Materiales Avanzados y Nanotecnología</t>
+  </si>
+  <si>
+    <t>Energías Renovables y Eficiencia Energética</t>
+  </si>
+  <si>
+    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Materiales Avanzados y Nanotecnología, Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Biotecnología y Bioingeniería</t>
+  </si>
+  <si>
+    <t>Materiales Avanzados y Nanotecnología, Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Materiales Avanzados y Nanotecnología</t>
+  </si>
+  <si>
+    <t>Energías Renovables y Eficiencia Energética, Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software)</t>
+  </si>
+  <si>
+    <t>Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Biotecnología y Bioingeniería, Materiales Avanzados y Nanotecnología</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain)</t>
+  </si>
+  <si>
+    <t>Automatización y Robótica (Hardware), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain)</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Energías Renovables y Eficiencia Energética, Sensores y Sistemas de Captura de Datos (Hardware)</t>
+  </si>
+  <si>
+    <t>Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain)</t>
+  </si>
+  <si>
+    <t>Automatización y Robótica (Hardware), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Sensores y Sistemas de Captura de Datos (Hardware), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Energías Renovables y Eficiencia Energética, Materiales Avanzados y Nanotecnología</t>
+  </si>
+  <si>
+    <t>Conectividad y Redes de Comunicación (Infraestructura), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Biotecenología y Bioingeniería</t>
+  </si>
+  <si>
+    <t>Biotecnología y Bioingeniería, Energías Renovables y Eficiencia Energética</t>
+  </si>
+  <si>
+    <t>Automatización y Robótica (Hardware), Sensores y Sistemas de Captura de Datos (Hardware)</t>
+  </si>
+  <si>
+    <t>Análisis de Datos e Inteligencia Artificial (Software), Energías Renovables y Eficiencia Energética</t>
   </si>
 </sst>
 </file>
@@ -3731,7 +3788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3799,6 +3856,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3813,6 +3872,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3822,22 +3894,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3847,10 +3903,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4113,26 +4171,26 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="29" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="30" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
       <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
@@ -35725,7 +35783,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -35751,11 +35809,11 @@
       <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="25" t="s">
         <v>638</v>
       </c>
       <c r="G1" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="H1" t="s">
         <v>995</v>
@@ -35777,8 +35835,8 @@
       <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>866</v>
+      <c r="F2" s="26" t="s">
+        <v>1015</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -35830,7 +35888,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>873</v>
+        <v>1016</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -35856,7 +35914,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>877</v>
+        <v>1017</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -35882,7 +35940,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>881</v>
+        <v>1018</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -35908,7 +35966,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>885</v>
+        <v>1019</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -35934,7 +35992,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>696</v>
+        <v>1020</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -35960,7 +36018,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>677</v>
+        <v>1021</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -35986,7 +36044,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -36012,7 +36070,7 @@
         <v>74</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -36038,7 +36096,7 @@
         <v>82</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -36064,7 +36122,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>649</v>
+        <v>1025</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -36090,7 +36148,7 @@
         <v>95</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>912</v>
+        <v>1015</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -36116,7 +36174,7 @@
         <v>101</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>916</v>
+        <v>1026</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -36142,7 +36200,7 @@
         <v>108</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>920</v>
+        <v>825</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -36168,7 +36226,7 @@
         <v>114</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>752</v>
+        <v>1027</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -36194,7 +36252,7 @@
         <v>121</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>723</v>
+        <v>1021</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -36220,7 +36278,7 @@
         <v>127</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>930</v>
+        <v>1028</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -36246,7 +36304,7 @@
         <v>135</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>812</v>
+        <v>1029</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -36272,7 +36330,7 @@
         <v>141</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>816</v>
+        <v>1030</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -36298,7 +36356,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -36324,7 +36382,7 @@
         <v>154</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -36350,7 +36408,7 @@
         <v>161</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -36376,7 +36434,7 @@
         <v>167</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>954</v>
+        <v>1030</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -36402,7 +36460,7 @@
         <v>175</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>649</v>
+        <v>1025</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -36428,7 +36486,7 @@
         <v>182</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>962</v>
+        <v>1032</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -36454,7 +36512,7 @@
         <v>189</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>967</v>
+        <v>1033</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -36480,7 +36538,7 @@
         <v>195</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>812</v>
+        <v>1029</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -36506,7 +36564,7 @@
         <v>202</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>974</v>
+        <v>1034</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -36532,7 +36590,7 @@
         <v>208</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>978</v>
+        <v>1035</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -36558,7 +36616,7 @@
         <v>215</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>982</v>
+        <v>1031</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -36584,7 +36642,7 @@
         <v>222</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -36610,7 +36668,7 @@
         <v>231</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>752</v>
+        <v>1021</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -36662,7 +36720,7 @@
         <v>245</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>649</v>
+        <v>1025</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -36688,7 +36746,7 @@
         <v>251</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>752</v>
+        <v>1027</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -36740,7 +36798,7 @@
         <v>265</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>769</v>
+        <v>1025</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -36766,7 +36824,7 @@
         <v>272</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>649</v>
+        <v>1025</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -36792,7 +36850,7 @@
         <v>279</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>649</v>
+        <v>1044</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -36818,7 +36876,7 @@
         <v>286</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>769</v>
+        <v>1025</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -36870,7 +36928,7 @@
         <v>300</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>786</v>
+        <v>1045</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -36922,7 +36980,7 @@
         <v>314</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>794</v>
+        <v>1046</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -36948,7 +37006,7 @@
         <v>321</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>306</v>
+        <v>1025</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -37000,7 +37058,7 @@
         <v>334</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>649</v>
+        <v>1025</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -37026,7 +37084,7 @@
         <v>340</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>752</v>
+        <v>1025</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -37052,7 +37110,7 @@
         <v>347</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>812</v>
+        <v>1029</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -37078,7 +37136,7 @@
         <v>353</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>816</v>
+        <v>1030</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -37104,7 +37162,7 @@
         <v>359</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>820</v>
+        <v>1035</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -37156,7 +37214,7 @@
         <v>372</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>829</v>
+        <v>1021</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -37182,7 +37240,7 @@
         <v>378</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>833</v>
+        <v>1033</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -37208,7 +37266,7 @@
         <v>385</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>837</v>
+        <v>1047</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -37234,7 +37292,7 @@
         <v>391</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>723</v>
+        <v>1021</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -37260,7 +37318,7 @@
         <v>397</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>723</v>
+        <v>1021</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -37286,7 +37344,7 @@
         <v>404</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>677</v>
+        <v>1021</v>
       </c>
       <c r="G60">
         <v>5</v>
@@ -37312,7 +37370,7 @@
         <v>410</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>1013</v>
+        <v>1041</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -37338,7 +37396,7 @@
         <v>416</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>649</v>
+        <v>1025</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -37364,7 +37422,7 @@
         <v>423</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>649</v>
+        <v>1025</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -37390,7 +37448,7 @@
         <v>430</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>743</v>
+        <v>1032</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -37468,7 +37526,7 @@
         <v>452</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>649</v>
+        <v>1025</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -37494,7 +37552,7 @@
         <v>459</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>653</v>
+        <v>1025</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -37520,7 +37578,7 @@
         <v>466</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>1014</v>
+        <v>1037</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -37572,7 +37630,7 @@
         <v>480</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>665</v>
+        <v>1038</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -37624,7 +37682,7 @@
         <v>495</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -37650,7 +37708,7 @@
         <v>502</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>677</v>
+        <v>1021</v>
       </c>
       <c r="G74">
         <v>5</v>
@@ -37676,7 +37734,7 @@
         <v>509</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -37702,7 +37760,7 @@
         <v>516</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -37728,7 +37786,7 @@
         <v>522</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -37780,7 +37838,7 @@
         <v>537</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>696</v>
+        <v>1020</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -37806,7 +37864,7 @@
         <v>544</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>700</v>
+        <v>1040</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -37832,7 +37890,7 @@
         <v>551</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>677</v>
+        <v>1021</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -37858,7 +37916,7 @@
         <v>557</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>1016</v>
+        <v>1041</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -37884,7 +37942,7 @@
         <v>564</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -37910,7 +37968,7 @@
         <v>571</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>715</v>
+        <v>1042</v>
       </c>
       <c r="G84">
         <v>5</v>
@@ -37936,7 +37994,7 @@
         <v>578</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>1018</v>
+        <v>1043</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -37962,7 +38020,7 @@
         <v>585</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>723</v>
+        <v>1021</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -37988,7 +38046,7 @@
         <v>592</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>677</v>
+        <v>1021</v>
       </c>
       <c r="G87">
         <v>5</v>
@@ -38014,7 +38072,7 @@
         <v>598</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>723</v>
+        <v>1021</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -38040,7 +38098,7 @@
         <v>605</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>723</v>
+        <v>1021</v>
       </c>
       <c r="G89">
         <v>3</v>
@@ -38066,7 +38124,7 @@
         <v>612</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>649</v>
+        <v>1025</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -38092,7 +38150,7 @@
         <v>617</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -38118,7 +38176,7 @@
         <v>624</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>743</v>
+        <v>1032</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -38144,7 +38202,7 @@
         <v>631</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="G93">
         <v>3</v>
@@ -67519,19 +67577,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1"/>
     <row r="2" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="36" t="s">
         <v>990</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="L2" s="43" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="L2" s="39" t="s">
         <v>990</v>
       </c>
       <c r="M2" s="22" t="s">
@@ -67539,51 +67597,51 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="40" t="s">
         <v>992</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="L3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="22" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="L4" s="45"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="22" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="L5" s="46" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="L5" s="47" t="s">
         <v>995</v>
       </c>
       <c r="M5" s="22" t="s">
@@ -67591,33 +67649,33 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="L6" s="44"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="22" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="L7" s="45"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="22" t="s">
         <v>998</v>
       </c>
@@ -67633,7 +67691,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="48" t="s">
         <v>999</v>
       </c>
       <c r="M8" s="22" t="s">
@@ -67641,53 +67699,53 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>1001</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="L9" s="44"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="22" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="40" t="s">
         <v>1003</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="L10" s="45"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="22" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="L11" s="49" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="L11" s="33" t="s">
         <v>1005</v>
       </c>
       <c r="M11" s="22" t="s">
@@ -67695,48 +67753,48 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="L12" s="44"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="22" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="L13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="22" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="17"/>
@@ -67751,80 +67809,80 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="50" t="s">
         <v>999</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="40" t="s">
         <v>1009</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
       <c r="A22" s="17"/>
@@ -67839,80 +67897,80 @@
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="51" t="s">
         <v>1010</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="40" t="s">
         <v>1011</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
@@ -69029,6 +69087,10 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J21"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J28"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="L2:L4"/>
@@ -69037,10 +69099,6 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:J14"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J21"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/Consolidado regiones piloto (necesidades tecnológicas).xlsx
+++ b/Consolidado regiones piloto (necesidades tecnológicas).xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1047">
   <si>
     <t>Región</t>
   </si>
@@ -3492,9 +3492,6 @@
   </si>
   <si>
     <t>Conectividad y Redes de Comunicación (Infraestructura), Procesamiento de Datos y Conectividad (IoT; Big Data; Blockchain), Tecnologías de la Información y Comunicación</t>
-  </si>
-  <si>
-    <t>Biotecenología y Bioingeniería</t>
   </si>
   <si>
     <t>Biotecnología y Bioingeniería, Energías Renovables y Eficiencia Energética</t>
@@ -35782,8 +35779,8 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -36459,7 +36456,7 @@
       <c r="E26" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="26" t="s">
         <v>1025</v>
       </c>
       <c r="G26">
@@ -36849,8 +36846,8 @@
       <c r="E41" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>1044</v>
+      <c r="F41" s="26" t="s">
+        <v>1025</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -36875,7 +36872,7 @@
       <c r="E42" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="26" t="s">
         <v>1025</v>
       </c>
       <c r="G42">
@@ -36928,7 +36925,7 @@
         <v>300</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -36980,7 +36977,7 @@
         <v>314</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -37266,7 +37263,7 @@
         <v>385</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G57">
         <v>5</v>
